--- a/Document/000_DUYD全体仕様.xlsx
+++ b/Document/000_DUYD全体仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム企画練習\オリジナルゲーム\DUYD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D32E51-FE21-40B8-822E-5B7143788C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DF624E-1C86-42C2-BBF4-6EAD1390A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,6 +236,8 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1411,8 +1413,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1430,8 +1432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2419350" y="8353425"/>
-          <a:ext cx="5600700" cy="962025"/>
+          <a:off x="2415988" y="10086415"/>
+          <a:ext cx="5581090" cy="1110503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,14 +1582,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>131109</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1607,8 +1609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495550" y="9963150"/>
-          <a:ext cx="1238250" cy="809625"/>
+          <a:off x="2528047" y="11785787"/>
+          <a:ext cx="1233768" cy="863413"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2837,16 +2839,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>142315</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2864,8 +2866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="11372850"/>
-          <a:ext cx="952500" cy="952500"/>
+          <a:off x="6212541" y="13247594"/>
+          <a:ext cx="949139" cy="1069041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,13 +3084,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>159684</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159684</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -3115,9 +3117,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3114675" y="9267825"/>
-          <a:ext cx="57150" cy="695325"/>
+        <a:xfrm>
+          <a:off x="3144931" y="11196918"/>
+          <a:ext cx="0" cy="588869"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3149,13 +3151,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>133069</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133069</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -3182,9 +3184,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6686550" y="9296400"/>
-          <a:ext cx="38100" cy="619125"/>
+        <a:xfrm>
+          <a:off x="6668340" y="11196918"/>
+          <a:ext cx="0" cy="541244"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3216,15 +3218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>133069</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>151840</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3250,9 +3252,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6657975" y="10725150"/>
-          <a:ext cx="28575" cy="647700"/>
+        <a:xfrm>
+          <a:off x="6668340" y="12592610"/>
+          <a:ext cx="18771" cy="654984"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3284,13 +3286,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>151840</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>159684</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3319,8 +3321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3105150" y="10925175"/>
-          <a:ext cx="9525" cy="1571625"/>
+          <a:off x="3137087" y="12649200"/>
+          <a:ext cx="7844" cy="1715060"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3352,15 +3354,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>131109</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123545</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3377,6 +3379,7 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="10" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D7CE9307-995A-4A07-99DD-36DD989149F0}" end="{EBBAA798-1E92-45FF-965B-F745DA6B0307}"/>
@@ -3386,8 +3389,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3733800" y="9296400"/>
-          <a:ext cx="1057275" cy="1076325"/>
+          <a:off x="3761815" y="11196918"/>
+          <a:ext cx="1444718" cy="1020576"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3419,15 +3422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3451,12 +3454,14 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7305675" y="9344025"/>
-          <a:ext cx="428625" cy="971550"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6991070" y="11491353"/>
+          <a:ext cx="968189" cy="379320"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 926"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -3484,14 +3489,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>142315</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -3511,8 +3516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="12496800"/>
-          <a:ext cx="952500" cy="952500"/>
+          <a:off x="2662518" y="14364260"/>
+          <a:ext cx="949138" cy="1006289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3662,13 +3667,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>151840</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>37540</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -3696,8 +3701,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="13449300"/>
-          <a:ext cx="47625" cy="2524125"/>
+          <a:off x="3137087" y="15370549"/>
+          <a:ext cx="47065" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5072,15 +5077,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>84045</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>26895</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5098,8 +5103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="22012275"/>
-          <a:ext cx="1238250" cy="809625"/>
+          <a:off x="2746563" y="24587387"/>
+          <a:ext cx="1233767" cy="863413"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -5604,9 +5609,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>26895</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -5639,8 +5644,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="22417088"/>
-          <a:ext cx="1114425" cy="671512"/>
+          <a:off x="3980330" y="25019094"/>
+          <a:ext cx="1140758" cy="716896"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6262,13 +6267,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>52389</xdr:rowOff>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>55471</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6295,13 +6300,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="45244" y="19466720"/>
-          <a:ext cx="6205537" cy="504825"/>
+          <a:off x="-154781" y="21932573"/>
+          <a:ext cx="6563565" cy="472890"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3684"/>
-            <a:gd name="adj2" fmla="val 167925"/>
+            <a:gd name="adj1" fmla="val -3483"/>
+            <a:gd name="adj2" fmla="val 178791"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -6331,15 +6336,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
+      <xdr:colOff>55471</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>61913</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6365,9 +6370,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3376613" y="21688425"/>
-          <a:ext cx="23812" cy="323850"/>
+        <a:xfrm flipH="1">
+          <a:off x="3363447" y="24255132"/>
+          <a:ext cx="6442" cy="332255"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6941,7 +6946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6999,7 +7004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDC6DB0-6697-4BC3-9090-DECD01448A6F}">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL70" sqref="AL70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>

--- a/Document/000_DUYD全体仕様.xlsx
+++ b/Document/000_DUYD全体仕様.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DF624E-1C86-42C2-BBF4-6EAD1390A47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7291F4-C1D5-48EA-9008-7605712AC218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6644,6 +6644,753 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7284</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>81242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>128866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="ひし形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3047C4DB-1A04-4767-AC29-5EF2B0FFFC82}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D7CE9307-995A-4A07-99DD-36DD989149F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6058460" y="15043336"/>
+          <a:ext cx="1234328" cy="854448"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ボタン押した？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>61633</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>147357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>61633</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>147357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="楕円 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5AE642-2A3F-4C6F-9791-24C8A72FC712}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A2671737-91E7-41B2-826F-84583A8E4167}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7242362" y="15593545"/>
+          <a:ext cx="161365" cy="161365"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>43704</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>43704</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="楕円 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34726706-E100-4F53-AD12-F9B46CBE4B50}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{877C2FF0-65F5-47CD-A06A-9B89620F1A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6901704" y="15854641"/>
+          <a:ext cx="161365" cy="161365"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>140353</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>151840</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>81242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD82C5E-6E87-4B24-9999-9536F2FD5FA5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DA415EE3-8E37-4CE2-83B8-3C015F4170AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{523DEAF1-01CA-41C5-9B67-BE71550A24A9}" end="{F535AADF-3EE4-4D68-AFB0-ED7FB0C05C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6675624" y="14316635"/>
+          <a:ext cx="11487" cy="726701"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142315</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>110939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>24372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D8AA1E-9857-4D55-BABE-959CCCB95435}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D8671643-5825-25AD-9F14-869F5CDDF075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="18" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D7CE9307-995A-4A07-99DD-36DD989149F0}" end="{EBBAA798-1E92-45FF-965B-F745DA6B0307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7161680" y="13782115"/>
+          <a:ext cx="131108" cy="1688445"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -174360"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>140353</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1355A83-F198-4C33-B2B1-E9ACB9C631A0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D8671643-5825-25AD-9F14-869F5CDDF075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="2"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{D7CE9307-995A-4A07-99DD-36DD989149F0}" end="{EBBAA798-1E92-45FF-965B-F745DA6B0307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3788850" y="13011010"/>
+          <a:ext cx="4727760" cy="1045789"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4835"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7004,8 +7751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDC6DB0-6697-4BC3-9090-DECD01448A6F}">
   <dimension ref="A1:AI171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL70" sqref="AL70"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ66" sqref="AQ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.05" customHeight="1"/>
